--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3590.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3590.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.380677727189549</v>
+        <v>1.172093272209167</v>
       </c>
       <c r="B1">
-        <v>3.392091238921581</v>
+        <v>4.173731327056885</v>
       </c>
       <c r="C1">
-        <v>4.915487024182549</v>
+        <v>3.794234752655029</v>
       </c>
       <c r="D1">
-        <v>1.517051756068297</v>
+        <v>1.803316950798035</v>
       </c>
       <c r="E1">
-        <v>0.9390039315148587</v>
+        <v>1.302623629570007</v>
       </c>
     </row>
   </sheetData>
